--- a/app/Licenciatura_em_Traducao_Frances_Portugues.xlsx
+++ b/app/Licenciatura_em_Traducao_Frances_Portugues.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Suzana Da Flora Alfredo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Marta David Mondlane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100383392S</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Timbila Monique</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Palmira Chilaule</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100667904B</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>Alzira Miguel Cambane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -461,9 +446,6 @@
     <t>Jacinta A. Do RosÁrio</t>
   </si>
   <si>
-    <t>Distrito de Montepuez</t>
-  </si>
-  <si>
     <t>021001680406P</t>
   </si>
   <si>
@@ -659,9 +641,6 @@
     <t>Anastancia Fabiao Munave</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>081402454518A</t>
   </si>
   <si>
@@ -707,9 +686,6 @@
     <t>Lidia Jose Mucavele</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110302377469N</t>
   </si>
   <si>
@@ -797,9 +773,6 @@
     <t xml:space="preserve">Ana Renato Uafino </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t xml:space="preserve">040600496691I </t>
   </si>
   <si>
@@ -822,9 +795,6 @@
   </si>
   <si>
     <t>Emilia Antonio A. Mangue</t>
-  </si>
-  <si>
-    <t>Cidade de Chimoio</t>
   </si>
   <si>
     <t>060102579373F</t>
@@ -2159,7 +2129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2175,7 +2145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2191,7 +2161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2207,7 +2177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2223,7 +2193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2238,9 +2208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2248,7 +2216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2259,7 +2227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2268,7 +2236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2280,7 +2248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2288,7 +2256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2384,7 +2352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2427,7 +2395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2754,7 +2722,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2770,7 +2738,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2786,7 +2754,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2802,7 +2770,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2818,7 +2786,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2833,9 +2801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2843,7 +2809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2854,7 +2820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2863,7 +2829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2875,7 +2841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2883,7 +2849,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2979,7 +2945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3022,7 +2988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3349,7 +3315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3365,7 +3331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3381,7 +3347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3397,7 +3363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3413,7 +3379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3428,9 +3394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3438,7 +3402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3449,7 +3413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3458,7 +3422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3470,7 +3434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3478,7 +3442,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3574,7 +3538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3617,7 +3581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3944,7 +3908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3960,7 +3924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3976,7 +3940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3992,7 +3956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4008,7 +3972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4023,9 +3987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4033,7 +3995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4044,7 +4006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4053,7 +4015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4065,7 +4027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4073,7 +4035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4169,7 +4131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4212,7 +4174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4539,7 +4501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4555,7 +4517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4571,7 +4533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4587,7 +4549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4603,7 +4565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4618,9 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4628,7 +4588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4639,7 +4599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4648,7 +4608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4660,7 +4620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4668,7 +4628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4764,7 +4724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4807,7 +4767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5134,7 +5094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5150,7 +5110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5166,7 +5126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5182,7 +5142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5198,7 +5158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5213,9 +5173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5223,7 +5181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5234,7 +5192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5243,7 +5201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5255,7 +5213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5263,7 +5221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5359,7 +5317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5402,7 +5360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5729,7 +5687,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5745,7 +5703,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5761,7 +5719,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5777,7 +5735,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5793,7 +5751,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5808,9 +5766,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5818,7 +5774,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5829,7 +5785,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5838,7 +5794,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5850,7 +5806,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5858,7 +5814,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5954,7 +5910,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5997,7 +5953,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6324,7 +6280,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6340,7 +6296,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6356,7 +6312,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6372,7 +6328,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6388,7 +6344,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6403,9 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6413,7 +6367,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6424,7 +6378,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6433,7 +6387,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6445,7 +6399,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6453,7 +6407,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6549,7 +6503,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6592,7 +6546,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6919,7 +6873,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6935,7 +6889,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6951,7 +6905,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6967,7 +6921,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6983,7 +6937,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6998,9 +6952,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7008,7 +6960,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7019,7 +6971,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7028,7 +6980,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7040,7 +6992,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7048,7 +7000,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7144,7 +7096,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7187,7 +7139,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7514,7 +7466,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7530,7 +7482,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7546,7 +7498,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7562,7 +7514,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7578,7 +7530,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7593,9 +7545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7603,7 +7553,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7614,7 +7564,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7623,7 +7573,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7635,7 +7585,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7739,7 +7689,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7782,7 +7732,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8188,9 +8138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8198,7 +8146,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8209,7 +8157,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8218,7 +8166,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8230,7 +8178,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8238,7 +8186,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8334,7 +8282,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8377,7 +8325,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8704,7 +8652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8720,7 +8668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8736,7 +8684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8752,7 +8700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8768,7 +8716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8783,9 +8731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8793,7 +8739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8804,7 +8750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8813,7 +8759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8825,7 +8771,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8833,7 +8779,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8929,7 +8875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8972,7 +8918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9299,7 +9245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9315,7 +9261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9331,7 +9277,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9347,7 +9293,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9363,7 +9309,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9378,9 +9324,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>203</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9388,7 +9332,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9399,7 +9343,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9408,7 +9352,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9420,7 +9364,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9428,7 +9372,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9524,7 +9468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9567,7 +9511,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9894,7 +9838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9910,7 +9854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9926,7 +9870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9942,7 +9886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9958,7 +9902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9973,9 +9917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9983,7 +9925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9994,7 +9936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10003,7 +9945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10015,7 +9957,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10023,7 +9965,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10119,7 +10061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10162,7 +10104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10489,7 +10431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10505,7 +10447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10521,7 +10463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10537,7 +10479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10553,7 +10495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10568,9 +10510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10578,7 +10518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10589,7 +10529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10598,7 +10538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10610,7 +10550,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10618,7 +10558,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10714,7 +10654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10757,7 +10697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11084,7 +11024,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11100,7 +11040,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11116,7 +11056,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11132,7 +11072,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11148,7 +11088,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11163,9 +11103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11173,7 +11111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11184,7 +11122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11193,7 +11131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11205,7 +11143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11213,7 +11151,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11309,7 +11247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11352,7 +11290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11679,7 +11617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11695,7 +11633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11711,7 +11649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11727,7 +11665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11743,7 +11681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11758,9 +11696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11768,7 +11704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11779,7 +11715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11788,7 +11724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11800,7 +11736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11808,7 +11744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11904,7 +11840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11947,7 +11883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12274,7 +12210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12290,7 +12226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12306,7 +12242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12322,7 +12258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12338,7 +12274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12353,9 +12289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12363,7 +12297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12374,7 +12308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12383,7 +12317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12395,7 +12329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12403,7 +12337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12499,7 +12433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12542,7 +12476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12869,7 +12803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12885,7 +12819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12901,7 +12835,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12917,7 +12851,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12933,7 +12867,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12948,9 +12882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>249</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12958,7 +12890,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12969,7 +12901,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12978,7 +12910,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12990,7 +12922,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12998,7 +12930,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13094,7 +13026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13137,7 +13069,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13464,7 +13396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13480,7 +13412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13496,7 +13428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13512,7 +13444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13528,7 +13460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13543,9 +13475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>258</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13553,7 +13483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13564,7 +13494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13573,7 +13503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13585,7 +13515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13593,7 +13523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13689,7 +13619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13732,7 +13662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14059,7 +13989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14075,7 +14005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14091,7 +14021,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14107,7 +14037,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14123,7 +14053,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14138,9 +14068,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>249</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14148,7 +14076,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14159,7 +14087,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14168,7 +14096,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14180,7 +14108,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14188,7 +14116,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14284,7 +14212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14327,7 +14255,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14654,7 +14582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14670,7 +14598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14686,7 +14614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14702,7 +14630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14718,7 +14646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14733,9 +14661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14743,7 +14669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14754,7 +14680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14763,7 +14689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14775,7 +14701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14783,7 +14709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14879,7 +14805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14922,7 +14848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15249,7 +15175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15265,7 +15191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15281,7 +15207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15297,7 +15223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15313,7 +15239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15328,9 +15254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15338,7 +15262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15349,7 +15273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15358,7 +15282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15370,7 +15294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15474,7 +15398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15517,7 +15441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15844,7 +15768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15860,7 +15784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15876,7 +15800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15892,7 +15816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15908,7 +15832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15923,9 +15847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15933,7 +15855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15944,7 +15866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15953,7 +15875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15965,7 +15887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15973,7 +15895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16069,7 +15991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16112,7 +16034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16495,7 +16417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16511,7 +16433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16527,7 +16449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16543,7 +16465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16559,7 +16481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16574,9 +16496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16584,7 +16504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16595,7 +16515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16604,7 +16524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16616,7 +16536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16624,7 +16544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16720,7 +16640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16763,7 +16683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17090,7 +17010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17106,7 +17026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17122,7 +17042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17138,7 +17058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17154,7 +17074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17169,9 +17089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17179,7 +17097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17190,7 +17108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17199,7 +17117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17211,7 +17129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17219,7 +17137,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17315,7 +17233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17358,7 +17276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17685,7 +17603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17701,7 +17619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17717,7 +17635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17733,7 +17651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17749,7 +17667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17764,9 +17682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17774,7 +17690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17785,7 +17701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17794,7 +17710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17806,7 +17722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17814,7 +17730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17910,7 +17826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17953,7 +17869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18280,7 +18196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18296,7 +18212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18312,7 +18228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18328,7 +18244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18344,7 +18260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18359,9 +18275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18369,7 +18283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18380,7 +18294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18389,7 +18303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18401,7 +18315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18505,7 +18419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18548,7 +18462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18875,7 +18789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18891,7 +18805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18907,7 +18821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18923,7 +18837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18939,7 +18853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18954,9 +18868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18964,7 +18876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18975,7 +18887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18984,7 +18896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18996,7 +18908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19004,7 +18916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19100,7 +19012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19143,7 +19055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19470,7 +19382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19486,7 +19398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19502,7 +19414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19518,7 +19430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19534,7 +19446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19549,9 +19461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19559,7 +19469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19570,7 +19480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19579,7 +19489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19591,7 +19501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19599,7 +19509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19695,7 +19605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19738,7 +19648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
